--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_5_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_5_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[54.21295358634161, 72.84998401270109]</t>
+          <t>[54.07260261047598, 72.99033498856672]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3773949772495806, 1.7044476659115793]</t>
+          <t>[1.3773949772495797, 1.7044476659115801]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.71678601846206, 56.514733670401114]</t>
+          <t>[43.71295320919167, 56.518566479671506]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[53.92609154707243, 73.13684605197027]</t>
+          <t>[54.0970185382852, 72.9659190607575]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.71145804060308, 56.520061648260096]</t>
+          <t>[43.71793877751156, 56.51358091135161]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,21 +771,21 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[52.78283989019019, 74.11408692337997]</t>
+          <t>[53.1264742915145, 73.77045252205566]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O4" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P4" t="n">
         <v>1.415131825941349</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2390265320464255, 1.591237119836272]</t>
+          <t>[1.2264475824825025, 1.603816069400195]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.768985878194165, 56.6894851212407]</t>
+          <t>[43.76716993934688, 56.69130106008799]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>18.85027027027055</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.16834834834862</v>
+        <v>18.11963963963991</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.53219219219248</v>
+        <v>19.58090090090119</v>
       </c>
     </row>
     <row r="5">
@@ -857,21 +857,21 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[52.76510915886273, 73.96486152751882]</t>
+          <t>[52.735639005258776, 73.99433168112277]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="P5" t="n">
         <v>1.352237078121733</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.1509738850989635, 1.553500271144502]</t>
+          <t>[1.1635528346628865, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.71600933167904, 54.68499281657781]</t>
+          <t>[41.71810076661528, 54.68290138164157]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>19.0938138138141</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.31447447447475</v>
+        <v>18.36318318318346</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.87315315315345</v>
+        <v>19.82444444444474</v>
       </c>
     </row>
     <row r="6">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[52.47374380799945, 74.37377889147587]</t>
+          <t>[52.769807070257926, 74.0777156292174]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="O6" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="P6" t="n">
         <v>1.276763380738195</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.836998817399234, 56.84049102371124]</t>
+          <t>[43.83435867659661, 56.84313116451386]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.36939298165329, 75.5310476561267]</t>
+          <t>[51.590543466221504, 75.30989717155849]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8.681944052568724e-14</v>
+        <v>4.75175454539567e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>8.681944052568724e-14</v>
+        <v>4.75175454539567e-14</v>
       </c>
       <c r="P7" t="n">
         <v>1.150973885098963</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.912147165665644, 56.9723811998045]</t>
+          <t>[43.90606553509494, 56.97846283037521]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[51.62251074921337, 75.18018708515257]</t>
+          <t>[51.24050994805495, 75.562187886311]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.885780586188048e-14</v>
+        <v>1.101341240428155e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>3.885780586188048e-14</v>
+        <v>1.101341240428155e-13</v>
       </c>
       <c r="P8" t="n">
         <v>1.075500187715424</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.8868159442565773, 1.2641844311742716]</t>
+          <t>[0.8742369946926551, 1.2767633807381937]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>4.951594689828198e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>4.951594689828198e-14</v>
       </c>
       <c r="T8" t="n">
         <v>48.40685547046525</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.86525512107303, 54.94845581985748]</t>
+          <t>[41.86464435222517, 54.949066588705335]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1156,10 +1156,10 @@
         <v>20.16540540540571</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.43477477477506</v>
+        <v>19.38606606606636</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.89603603603635</v>
+        <v>20.94474474474506</v>
       </c>
     </row>
     <row r="9">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[51.09673154733021, 75.93895192834721]</t>
+          <t>[51.07865433327875, 75.95702914239867]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.045030811359538e-13</v>
+        <v>2.142730437526552e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>2.045030811359538e-13</v>
+        <v>2.142730437526552e-13</v>
       </c>
       <c r="P9" t="n">
         <v>1.01260543989581</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.98858097419761, 57.08751564726149]</t>
+          <t>[43.99159984162748, 57.08449677983162]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[51.22912485110764, 75.99972069151255]</t>
+          <t>[50.877503258949226, 76.35134228367096]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.778577285449501e-13</v>
+        <v>4.318767565791859e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.778577285449501e-13</v>
+        <v>4.318767565791859e-13</v>
       </c>
       <c r="P10" t="n">
         <v>0.8868159442565791</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.072435764989926, 57.17654531121185]</t>
+          <t>[44.06816420708641, 57.18081686911536]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[51.787185234481, 77.36670092854615]</t>
+          <t>[51.454337348768306, 77.69954881425885]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.064215547965432e-13</v>
+        <v>6.865619184281968e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>3.064215547965432e-13</v>
+        <v>6.865619184281968e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0.6478159025420389</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.360679137066086, 57.71435051103673]</t>
+          <t>[44.3612517836482, 57.71377786445461]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[53.16064604400535, 77.2487746172805]</t>
+          <t>[52.90749222766715, 77.5019284336187]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.219646771412954e-14</v>
+        <v>6.372680161348399e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>3.219646771412954e-14</v>
+        <v>6.372680161348399e-14</v>
       </c>
       <c r="P12" t="n">
         <v>0.4088158608275014</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[44.69408756369403, 57.955060762849264]</t>
+          <t>[44.68785817319232, 57.96129015335098]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[54.87046627658114, 75.53898361383236]</t>
+          <t>[54.80777263153317, 75.60167725888033]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[44.68838922756548, 57.96066719438886]</t>
+          <t>[44.69552051053814, 57.9535359114162]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[52.98034992519732, 76.17344643063103]</t>
+          <t>[53.009343114741256, 76.14445324108709]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="P14" t="n">
         <v>-0.2138421425866923</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.358617344158326, 57.71684782265422]</t>
+          <t>[44.36131017538303, 57.71415499142952]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,14 +1717,14 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[50.66759874013143, 75.8532932579603]</t>
+          <t>[50.404534659901145, 76.11635733819058]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.597122599785507e-13</v>
+        <v>6.87894186057747e-13</v>
       </c>
       <c r="O15" t="n">
-        <v>3.597122599785507e-13</v>
+        <v>6.87894186057747e-13</v>
       </c>
       <c r="P15" t="n">
         <v>-0.5912106295043857</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[43.53373283414943, 56.90739856048452]</t>
+          <t>[43.535873838607294, 56.90525755602666]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1803,35 +1803,35 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[49.89692891460346, 75.4860007125834]</t>
+          <t>[50.11979872866675, 75.2631308985201]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>7.851497230149107e-13</v>
+        <v>4.534150832569139e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>7.851497230149107e-13</v>
+        <v>4.534150832569139e-13</v>
       </c>
       <c r="P16" t="n">
         <v>-0.8679475199106941</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.0817896624973873, -0.6541053773240009]</t>
+          <t>[-1.0692107129334643, -0.6666843268879239]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.920945624789283e-10</v>
+        <v>3.538391801782836e-11</v>
       </c>
       <c r="S16" t="n">
-        <v>1.920945624789283e-10</v>
+        <v>3.538391801782836e-11</v>
       </c>
       <c r="T16" t="n">
         <v>49.46714606183906</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.91812638903083, 56.01616573464729]</t>
+          <t>[42.90940561697627, 56.02488650670185]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1844,10 +1844,10 @@
         <v>3.492132132132205</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.631751751751805</v>
+        <v>2.682362362362417</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.352512512512606</v>
+        <v>4.301901901901994</v>
       </c>
     </row>
     <row r="17">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[53.08185801053969, 73.39604118399258]</t>
+          <t>[52.996340850849876, 73.4815583436824]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O17" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P17" t="n">
         <v>-1.283052855520156</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[42.18119640537205, 54.09671162752696]</t>
+          <t>[42.18707015145044, 54.090837881448564]</t>
         </is>
       </c>
       <c r="V17" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_5_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_5_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[54.07260261047598, 72.99033498856672]</t>
+          <t>[54.09155103389, 72.9713865651527]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.71295320919167, 56.518566479671506]</t>
+          <t>[43.718400805340806, 56.51311888352237]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[54.0970185382852, 72.9659190607575]</t>
+          <t>[53.80678696665312, 73.25615063238958]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.71793877751156, 56.51358091135161]</t>
+          <t>[43.713523226946464, 56.51799646191671]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[53.1264742915145, 73.77045252205566]</t>
+          <t>[53.207304029734985, 73.68962278383518]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -785,7 +785,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 1.603816069400195]</t>
+          <t>[1.2390265320464255, 1.591237119836272]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.76716993934688, 56.69130106008799]</t>
+          <t>[43.77521904078811, 56.68325195864676]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>18.85027027027055</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.11963963963991</v>
+        <v>18.16834834834862</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.58090090090119</v>
+        <v>19.53219219219248</v>
       </c>
     </row>
     <row r="5">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[52.735639005258776, 73.99433168112277]</t>
+          <t>[52.66331157350503, 74.06665911287652]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="P5" t="n">
         <v>1.352237078121733</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.71810076661528, 54.68290138164157]</t>
+          <t>[41.72627449174948, 54.67472765650737]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[52.769807070257926, 74.0777156292174]</t>
+          <t>[51.922775946743, 74.92474675273232]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>1.754152378907747e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>1.754152378907747e-14</v>
       </c>
       <c r="P6" t="n">
         <v>1.276763380738195</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.83435867659661, 56.84313116451386]</t>
+          <t>[43.83537645511993, 56.842113385990544]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.590543466221504, 75.30989717155849]</t>
+          <t>[51.63284992484358, 75.26759071293641]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.75175454539567e-14</v>
+        <v>4.218847493575595e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>4.75175454539567e-14</v>
+        <v>4.218847493575595e-14</v>
       </c>
       <c r="P7" t="n">
         <v>1.150973885098963</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.90606553509494, 56.97846283037521]</t>
+          <t>[43.909136990218954, 56.97539137525119]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[51.24050994805495, 75.562187886311]</t>
+          <t>[51.50663919371084, 75.2960586406551]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.101341240428155e-13</v>
+        <v>5.373479439185758e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>1.101341240428155e-13</v>
+        <v>5.373479439185758e-14</v>
       </c>
       <c r="P8" t="n">
         <v>1.075500187715424</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.8742369946926551, 1.2767633807381937]</t>
+          <t>[0.8868159442565791, 1.2641844311742698]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.951594689828198e-14</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="S8" t="n">
-        <v>4.951594689828198e-14</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="T8" t="n">
         <v>48.40685547046525</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.86464435222517, 54.949066588705335]</t>
+          <t>[41.856760403806, 54.956950537124506]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1156,10 +1156,10 @@
         <v>20.16540540540571</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.38606606606636</v>
+        <v>19.43477477477507</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.94474474474506</v>
+        <v>20.89603603603635</v>
       </c>
     </row>
     <row r="9">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[51.07865433327875, 75.95702914239867]</t>
+          <t>[50.80923672741409, 76.22644674826333]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.142730437526552e-13</v>
+        <v>4.223288385674095e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>2.142730437526552e-13</v>
+        <v>4.223288385674095e-13</v>
       </c>
       <c r="P9" t="n">
         <v>1.01260543989581</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.99159984162748, 57.08449677983162]</t>
+          <t>[43.98499964729783, 57.09109697416127]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[50.877503258949226, 76.35134228367096]</t>
+          <t>[51.136096259708054, 76.09274928291214]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.318767565791859e-13</v>
+        <v>2.258193632087568e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>4.318767565791859e-13</v>
+        <v>2.258193632087568e-13</v>
       </c>
       <c r="P10" t="n">
         <v>0.8868159442565791</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.06816420708641, 57.18081686911536]</t>
+          <t>[44.063248842516344, 57.18573223368543]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,35 +1373,35 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[51.454337348768306, 77.69954881425885]</t>
+          <t>[51.46214576308118, 77.69174039994597]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6.865619184281968e-13</v>
+        <v>6.7390537594747e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>6.865619184281968e-13</v>
+        <v>6.7390537594747e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0.6478159025420389</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.4465527095192696, 0.8490790955648082]</t>
+          <t>[0.45913165908319176, 0.8365001460008861]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.977741701634898e-08</v>
+        <v>1.361869972349439e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>5.977741701634898e-08</v>
+        <v>1.361869972349439e-08</v>
       </c>
       <c r="T11" t="n">
         <v>51.03751482405141</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.3612517836482, 57.71377786445461]</t>
+          <t>[44.3695678454921, 57.705461802610714]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1414,10 +1414,10 @@
         <v>22.67355355355402</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.86378378378423</v>
+        <v>21.91439439439484</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.4833233233238</v>
+        <v>23.43271271271319</v>
       </c>
     </row>
     <row r="12">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[52.90749222766715, 77.5019284336187]</t>
+          <t>[53.33596506503159, 77.07345559625426]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>6.372680161348399e-14</v>
+        <v>1.998401444325282e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>6.372680161348399e-14</v>
+        <v>1.998401444325282e-14</v>
       </c>
       <c r="P12" t="n">
         <v>0.4088158608275014</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[44.68785817319232, 57.96129015335098]</t>
+          <t>[44.69253942262276, 57.95660890392054]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[54.80777263153317, 75.60167725888033]</t>
+          <t>[55.232314234130115, 75.17713565628338]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0.04402632347373014</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[44.69552051053814, 57.9535359114162]</t>
+          <t>[44.6896210268546, 57.95943539509974]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[53.009343114741256, 76.14445324108709]</t>
+          <t>[53.00394118186301, 76.14985517396534]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.36131017538303, 57.71415499142952]</t>
+          <t>[44.36928183756864, 57.706183329243906]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,35 +1717,35 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[50.404534659901145, 76.11635733819058]</t>
+          <t>[50.69067438473954, 75.83021761335219]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.87894186057747e-13</v>
+        <v>3.395062009303729e-13</v>
       </c>
       <c r="O15" t="n">
-        <v>6.87894186057747e-13</v>
+        <v>3.395062009303729e-13</v>
       </c>
       <c r="P15" t="n">
         <v>-0.5912106295043857</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.8050527720910781, -0.3773684869176934]</t>
+          <t>[-0.792473822527155, -0.38994743648161645]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.358742622192821e-06</v>
+        <v>4.154151043156418e-07</v>
       </c>
       <c r="S15" t="n">
-        <v>1.358742622192821e-06</v>
+        <v>4.154151043156418e-07</v>
       </c>
       <c r="T15" t="n">
         <v>50.22056569731698</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[43.535873838607294, 56.90525755602666]</t>
+          <t>[43.53587328700959, 56.90525810762436]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1758,10 +1758,10 @@
         <v>2.378698698698749</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.518318318318352</v>
+        <v>1.568928928928963</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.239079079079145</v>
+        <v>3.188468468468534</v>
       </c>
     </row>
     <row r="16">
@@ -1803,14 +1803,14 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[50.11979872866675, 75.2631308985201]</t>
+          <t>[49.88563111157697, 75.49729851560988]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.534150832569139e-13</v>
+        <v>8.069100942975638e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>4.534150832569139e-13</v>
+        <v>8.069100942975638e-13</v>
       </c>
       <c r="P16" t="n">
         <v>-0.8679475199106941</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.90940561697627, 56.02488650670185]</t>
+          <t>[42.91328608949591, 56.02100603418221]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[52.996340850849876, 73.4815583436824]</t>
+          <t>[53.24876966575293, 73.22912952877934]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O17" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P17" t="n">
         <v>-1.283052855520156</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[42.18707015145044, 54.090837881448564]</t>
+          <t>[42.178063338990924, 54.09984469390808]</t>
         </is>
       </c>
       <c r="V17" t="n">
